--- a/数据整理/stocks/港股/06030-中信证券.xlsx
+++ b/数据整理/stocks/港股/06030-中信证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006395</t>
+          <t>009190</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+          <t>景顺长城核心优选一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>62.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006578</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006579</t>
+          <t>501050</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>005937</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>工银瑞信精选金融地产行业混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.18</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14.59</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006193</t>
+          <t>005938</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鑫元核心资产股票A</t>
+          <t>工银瑞信精选金融地产行业混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006194</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鑫元核心资产股票C</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501050</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501067</t>
+          <t>006578</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商富时中国A-H50指数（LOF）A</t>
+          <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501068</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商富时中国A-H50指数（LOF）C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001942</t>
+          <t>005493</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+          <t>鑫元价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20.21</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -810,15 +930,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>20.21</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.82</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>501067</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>招商富时中国A-H50指数（LOF）A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005493</t>
+          <t>006193</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鑫元价值精选灵活配置混合A</t>
+          <t>鑫元核心资产股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005494</t>
+          <t>001942</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鑫元价值精选灵活配置混合C</t>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>006395</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005937</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005938</t>
+          <t>501068</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
+          <t>招商富时中国A-H50指数（LOF）C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1024,25 +1224,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>006194</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>鑫元核心资产股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>75.25</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009190</t>
+          <t>005494</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>景顺长城核心优选一年持有期混合</t>
+          <t>鑫元价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,15 +1326,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5873</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>501050</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1276,15 +1556,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.31</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.16</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006579</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501050</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006395</t>
+          <t>501067</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+          <t>招商富时中国A-H50指数（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501067</t>
+          <t>006395</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商富时中国A-H50指数（LOF）A</t>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501068</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商富时中国A-H50指数（LOF）C</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>501068</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>招商富时中国A-H50指数（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14.67</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06030-中信证券.xlsx
+++ b/数据整理/stocks/港股/06030-中信证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5386</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06030-中信证券.xlsx
+++ b/数据整理/stocks/港股/06030-中信证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2398,4 +2399,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6401</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06030-中信证券.xlsx
+++ b/数据整理/stocks/港股/06030-中信证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3215,4 +3216,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06030-中信证券.xlsx
+++ b/数据整理/stocks/港股/06030-中信证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3224,7 +3225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,17 +3236,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3255,14 +3276,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.5</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3653</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3271,14 +3314,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.88</v>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7052</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3287,14 +3352,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.33</v>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5491</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3303,13 +3390,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.26</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06030-中信证券.xlsx
+++ b/数据整理/stocks/港股/06030-中信证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3775,7 +3776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3786,17 +3787,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3806,14 +3827,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.64</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3822,14 +3865,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.5</v>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7471</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3838,14 +3903,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.88</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3854,14 +3941,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.33</v>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3870,13 +3979,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.26</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06030-中信证券.xlsx
+++ b/数据整理/stocks/港股/06030-中信证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4364,7 +4365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4375,17 +4376,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4395,14 +4416,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.38</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4411,14 +4454,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.64</v>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2483</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4427,14 +4492,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.5</v>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6449</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4443,14 +4530,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.88</v>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4459,14 +4568,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.33</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4475,13 +4606,601 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.26</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06030-中信证券.xlsx
+++ b/数据整理/stocks/港股/06030-中信证券.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,851 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009190</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城核心优选一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4555</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3656</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501050</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4116</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005937</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3401</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005938</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2111</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1764</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0867</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0733</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006578</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005493</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鑫元价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006579</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501067</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商富时中国A-H50指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006193</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鑫元核心资产股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006395</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>75.25</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501068</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商富时中国A-H50指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006194</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鑫元核心资产股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005494</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鑫元价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1311,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1372,22 +666,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>95.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14.67</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5873</t>
+          <t>1.9256</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1400,32 +694,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501050</t>
+          <t>014591</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+          <t>广发瑞誉一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.22</t>
+          <t>37.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>89.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3437</t>
+          <t>1.2483</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1438,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>501050</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>25.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1373</t>
+          <t>0.6449</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1476,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>014592</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>广发瑞誉一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>89.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0923</t>
+          <t>0.1477</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1514,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0760</t>
+          <t>0.1279</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1552,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006578</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0829</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1590,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0750</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1628,12 +922,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006579</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1643,21 +937,21 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0174</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1666,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501067</t>
+          <t>004099</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商富时中国A-H50指数（LOF）A</t>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>84.29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.0268</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1704,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006395</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>95.24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0268</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1742,36 +1036,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1780,36 +1074,226 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501068</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商富时中国A-H50指数（LOF）C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1328,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1884,26 +1368,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>96.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14.22</t>
+          <t>17.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5386</t>
+          <t>1.9206</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1922,26 +1406,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.11</t>
+          <t>25.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>92.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4274</t>
+          <t>0.7471</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1950,36 +1434,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005937</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.67</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3726</t>
+          <t>0.2444</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1988,36 +1472,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005938</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.67</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2107</t>
+          <t>0.1629</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2026,36 +1510,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>011722</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1043</t>
+          <t>0.1359</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2064,36 +1548,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>90.93</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0700</t>
+          <t>0.0730</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2102,32 +1586,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.37</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2140,36 +1624,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006578</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>90.93</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0339</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2178,36 +1662,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>011723</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0289</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2216,36 +1700,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006579</t>
+          <t>501067</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
+          <t>招商富时中国A-H50指数（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2254,36 +1738,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501067</t>
+          <t>006395</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商富时中国A-H50指数（LOF）A</t>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>92.28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2292,36 +1776,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006395</t>
+          <t>501068</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+          <t>招商富时中国A-H50指数（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2330,36 +1814,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2368,36 +1852,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>501068</t>
+          <t>002860</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>招商富时中国A-H50指数（LOF）C</t>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>83.26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2406,6 +1890,556 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3653</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7052</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5491</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3214,556 +3248,6 @@
       </c>
       <c r="H21" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>14.54</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3653</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501050</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7052</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005937</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5491</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2785</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005938</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2323</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011355</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1967</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1884</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0498</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0417</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011356</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006395</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501067</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商富时中国A-H50指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501068</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商富时中国A-H50指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3798,7 +3282,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3838,26 +3322,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.47</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>17.35</t>
+          <t>14.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9206</t>
+          <t>1.5386</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3876,26 +3360,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.94</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>93.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7471</t>
+          <t>0.4274</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3904,36 +3388,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>005937</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>工银瑞信精选金融地产行业混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>87.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2444</t>
+          <t>0.3726</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3942,36 +3426,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>005938</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>工银瑞信精选金融地产行业混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>87.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1629</t>
+          <t>0.2107</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3980,36 +3464,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011722</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1359</t>
+          <t>0.1043</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -4018,36 +3502,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011355</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0730</t>
+          <t>0.0700</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -4056,32 +3540,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>96.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0650</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -4094,36 +3578,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011356</t>
+          <t>006578</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -4132,36 +3616,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011723</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>0.0289</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -4170,36 +3654,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501067</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商富时中国A-H50指数（LOF）A</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -4208,36 +3692,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006395</t>
+          <t>501067</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+          <t>招商富时中国A-H50指数（LOF）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -4246,36 +3730,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501068</t>
+          <t>006395</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商富时中国A-H50指数（LOF）C</t>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>93.26</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -4284,36 +3768,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>82.53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -4322,36 +3806,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002860</t>
+          <t>501068</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源沪港深新机遇灵活配置混合</t>
+          <t>招商富时中国A-H50指数（LOF）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.26</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4365,7 +3849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4386,7 +3870,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4426,22 +3910,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>97.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>14.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9256</t>
+          <t>1.5873</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -4454,32 +3938,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014591</t>
+          <t>501050</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发瑞誉一年持有期混合A</t>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.60</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2483</t>
+          <t>0.3437</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -4492,36 +3976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501050</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.90</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6449</t>
+          <t>0.1373</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4530,36 +4014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014592</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发瑞誉一年持有期混合C</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1477</t>
+          <t>0.0923</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4568,36 +4052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1279</t>
+          <t>0.0760</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4606,36 +4090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>006578</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0829</t>
+          <t>0.0357</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -4644,36 +4128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011355</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0750</t>
+          <t>0.0275</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -4682,12 +4166,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4697,21 +4181,21 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -4720,36 +4204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004099</t>
+          <t>501067</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+          <t>招商富时中国A-H50指数（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0268</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -4758,36 +4242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>006395</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>95.24</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0268</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -4796,36 +4280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011356</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>79.88</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0250</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -4834,226 +4318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>501068</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>招商富时中国A-H50指数（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006395</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002860</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>38.59</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5067,144 +4361,850 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D2" t="n">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>21</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.26</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/06030-中信证券.xlsx
+++ b/数据整理/stocks/港股/06030-中信证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>4.41</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>3.38</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>3.64</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.33</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.26</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5848</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014318</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>42.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1301,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1889,7 +2646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2439,7 +3196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3255,7 +4012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3843,7 +4600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4355,7 +5112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06030-中信证券.xlsx
+++ b/数据整理/stocks/港股/06030-中信证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>3.4</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>4.41</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>3.38</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>3.64</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.33</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.26</v>
       </c>
     </row>
@@ -616,7 +633,1715 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6277</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安香港精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014317</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014318</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016742</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1356,7 +3081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2058,7 +3783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2646,7 +4371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3196,7 +4921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4012,7 +5737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4600,7 +6325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5110,858 +6835,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009190</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城核心优选一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4555</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3656</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501050</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4116</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005937</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3401</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005938</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2111</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1764</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0867</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0733</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006578</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005493</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鑫元价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006579</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501067</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商富时中国A-H50指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006193</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鑫元核心资产股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006395</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>75.25</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501068</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商富时中国A-H50指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006194</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鑫元核心资产股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005494</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鑫元价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>